--- a/bfs_benchmark.xlsx
+++ b/bfs_benchmark.xlsx
@@ -773,37 +773,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:16.837509</t>
+          <t>2022-11-05 21:22:58.288926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:17.203971</t>
+          <t>2022-11-05 21:22:58.724016</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:17.686276</t>
+          <t>2022-11-05 21:22:59.217108</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:18.077714</t>
+          <t>2022-11-05 21:22:59.626710</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:18.455291</t>
+          <t>2022-11-05 21:23:00.018166</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:19.075595</t>
+          <t>2022-11-05 21:23:00.642951</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:19.483112</t>
+          <t>2022-11-05 21:23:01.066801</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:28.893307</t>
+          <t>2022-11-05 21:23:10.491174</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:29.290518</t>
+          <t>2022-11-05 21:23:10.907089</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:30.332823</t>
+          <t>2022-11-05 21:23:11.978026</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:30.750489</t>
+          <t>2022-11-05 21:23:12.401904</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:34.361042</t>
+          <t>2022-11-05 21:23:16.065866</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:14:15.393401</t>
+          <t>2022-11-05 21:27:57.334879</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:37.893115</t>
+          <t>2022-11-05 21:23:19.611047</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:39.593289</t>
+          <t>2022-11-05 21:23:21.356549</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:43.160167</t>
+          <t>2022-11-05 21:23:24.926706</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:43.603933</t>
+          <t>2022-11-05 21:23:25.372714</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:47.139587</t>
+          <t>2022-11-05 21:23:28.922602</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:47.697040</t>
+          <t>2022-11-05 21:23:29.495336</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:51.375884</t>
+          <t>2022-11-05 21:23:33.185824</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -918,22 +918,22 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:57.876323</t>
+          <t>2022-11-05 21:23:39.701288</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:09:58.557866</t>
+          <t>2022-11-05 21:23:40.398321</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:10:00.069586</t>
+          <t>2022-11-05 21:23:41.949445</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:10:01.055747</t>
+          <t>2022-11-05 21:23:42.951709</t>
         </is>
       </c>
     </row>
@@ -945,37 +945,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0:00:00.007649</t>
+          <t>0:00:00.008072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:00.110011</t>
+          <t>0:00:00.112980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:00.032699</t>
+          <t>0:00:00.034098</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:00.018795</t>
+          <t>0:00:00.019785</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:00.258983</t>
+          <t>0:00:00.250555</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:00:00.045875</t>
+          <t>0:00:00.047204</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0:00:00.040688</t>
+          <t>0:00:00.043785</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -995,22 +995,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00:00.037935</t>
+          <t>0:00:00.039239</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0:00:00.675234</t>
+          <t>0:00:00.696022</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0:00:00.052323</t>
+          <t>0:00:00.052883</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0:00:00.245868</t>
+          <t>0:00:00.250865</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0:00:00.166614</t>
+          <t>0:00:00.167500</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0:00:34.938443</t>
+          <t>0:00:36.691401</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0:00:01.335375</t>
+          <t>0:00:01.362869</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0:00:00.193451</t>
+          <t>0:00:00.196193</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0:00:00.073632</t>
+          <t>0:00:00.074802</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:00:00.166910</t>
+          <t>0:00:00.171301</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1060,12 +1060,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0:00:00.193663</t>
+          <t>0:00:00.197679</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:00:00.307073</t>
+          <t>0:00:00.310641</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0:00:00.132192</t>
+          <t>0:00:00.135129</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1090,22 +1090,22 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0:00:00.317031</t>
+          <t>0:00:00.322640</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0:00:01.144501</t>
+          <t>0:00:01.176713</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0:00:00.622113</t>
+          <t>0:00:00.631033</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0:00:01.838737</t>
+          <t>0:00:01.885628</t>
         </is>
       </c>
     </row>
@@ -1461,37 +1461,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>64323584</t>
+          <t>196608</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>65060864</t>
+          <t>1130496</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>65306624</t>
+          <t>475136</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64946176</t>
+          <t>245760</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66895872</t>
+          <t>2424832</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64978944</t>
+          <t>573440</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>64585728</t>
+          <t>475136</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>64667648</t>
+          <t>507904</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>69337088</t>
+          <t>5521408</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>66256896</t>
+          <t>688128</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>67223552</t>
+          <t>2359296</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>65601536</t>
+          <t>1212416</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>88227840</t>
+          <t>23379968</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>72286208</t>
+          <t>6717440</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>66289664</t>
+          <t>1818624</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>65847296</t>
+          <t>819200</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>66420736</t>
+          <t>1753088</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>65748992</t>
+          <t>1785856</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>67551232</t>
+          <t>2981888</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>66076672</t>
+          <t>1392640</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1606,22 +1606,22 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>67895296</t>
+          <t>2834432</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>71352320</t>
+          <t>7192576</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>68894720</t>
+          <t>4571136</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>71827456</t>
+          <t>7536640</t>
         </is>
       </c>
     </row>
